--- a/Team-Data/2011-12/3-4-2011-12.xlsx
+++ b/Team-Data/2011-12/3-4-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -774,19 +841,19 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -807,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -848,31 +915,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
         <v>15.5</v>
@@ -881,64 +948,64 @@
         <v>0.372</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
         <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S3" t="n">
         <v>30.7</v>
       </c>
       <c r="T3" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -959,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,13 +1050,13 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
@@ -1048,34 +1115,34 @@
         <v>33.4</v>
       </c>
       <c r="J4" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.413</v>
+        <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M4" t="n">
         <v>14.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.299</v>
+        <v>0.304</v>
       </c>
       <c r="O4" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="P4" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.725</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
         <v>39.9</v>
@@ -1084,31 +1151,31 @@
         <v>19.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X4" t="n">
         <v>5.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.7</v>
+        <v>86.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.5</v>
+        <v>-14.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1141,16 +1208,16 @@
         <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1171,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.795</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1242,22 +1309,22 @@
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
         <v>45.6</v>
@@ -1269,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1287,7 +1354,7 @@
         <v>97.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1323,19 +1390,19 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1347,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
@@ -1511,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1547,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1687,10 +1754,10 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
@@ -1708,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1717,16 +1784,16 @@
         <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O8" t="n">
         <v>20.4</v>
@@ -1803,16 +1870,16 @@
         <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
@@ -1824,31 +1891,31 @@
         <v>6.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA8" t="n">
         <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1860,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1869,19 +1936,19 @@
         <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>7</v>
@@ -1890,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2027,16 +2094,16 @@
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2063,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>26</v>
@@ -2084,10 +2151,10 @@
         <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2122,82 +2189,82 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
         <v>10.8</v>
       </c>
       <c r="S10" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T10" t="n">
         <v>40.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V10" t="n">
         <v>14.3</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y10" t="n">
         <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
         <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -2206,22 +2273,22 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2230,16 +2297,16 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>20</v>
@@ -2251,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2272,10 +2339,10 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>0.553</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
         <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O11" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.788</v>
@@ -2358,7 +2425,7 @@
         <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
@@ -2370,31 +2437,31 @@
         <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA11" t="n">
         <v>18.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,13 +2479,13 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2430,31 +2497,31 @@
         <v>19</v>
       </c>
       <c r="AT11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2588,19 +2655,19 @@
         <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="n">
         <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2609,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2618,7 +2685,7 @@
         <v>27</v>
       </c>
       <c r="AV12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2639,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
         <v>16.6</v>
@@ -2707,49 +2774,49 @@
         <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.695</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R13" t="n">
         <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T13" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
@@ -2758,16 +2825,16 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2785,13 +2852,13 @@
         <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
@@ -2806,10 +2873,10 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.622</v>
+        <v>0.611</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,10 +2935,10 @@
         <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2</v>
+        <v>79.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L14" t="n">
         <v>5.1</v>
@@ -2880,7 +2947,7 @@
         <v>16.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="O14" t="n">
         <v>17.1</v>
@@ -2889,28 +2956,28 @@
         <v>22.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T14" t="n">
         <v>45.8</v>
       </c>
       <c r="U14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>5.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>3.9</v>
@@ -2919,19 +2986,19 @@
         <v>18.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2940,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2961,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2982,13 +3049,13 @@
         <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB14" t="n">
         <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
@@ -3122,13 +3189,13 @@
         <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3152,19 +3219,19 @@
         <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3176,7 +3243,7 @@
         <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.757</v>
+        <v>0.778</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.399</v>
+        <v>0.404</v>
       </c>
       <c r="O16" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3277,28 +3344,28 @@
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.1</v>
+        <v>103.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3325,37 +3392,37 @@
         <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT16" t="n">
         <v>14</v>
       </c>
       <c r="AU16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX16" t="n">
         <v>14</v>
       </c>
-      <c r="AV16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>15</v>
-      </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3495,22 +3562,22 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3689,7 +3756,7 @@
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP18" t="n">
         <v>3</v>
@@ -3713,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>27</v>
@@ -3722,13 +3789,13 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.316</v>
+        <v>0.297</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,37 +3845,37 @@
         <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O19" t="n">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="P19" t="n">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
         <v>19.8</v>
@@ -3820,46 +3887,46 @@
         <v>7.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA19" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA19" t="n">
-        <v>20.4</v>
-      </c>
       <c r="AB19" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3868,22 +3935,22 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT19" t="n">
         <v>29</v>
@@ -3892,10 +3959,10 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4077,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>80.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.434</v>
@@ -4151,37 +4218,37 @@
         <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="O21" t="n">
         <v>19.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V21" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.2</v>
@@ -4193,37 +4260,37 @@
         <v>21.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4247,10 +4314,10 @@
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4265,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,10 +4645,10 @@
         <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4599,10 +4666,10 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>17</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4623,13 +4690,13 @@
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
@@ -4641,7 +4708,7 @@
         <v>19</v>
       </c>
       <c r="BC23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.579</v>
+        <v>0.595</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M24" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="O24" t="n">
         <v>13.4</v>
@@ -4709,22 +4776,22 @@
         <v>18.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R24" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="S24" t="n">
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="W24" t="n">
         <v>8.6</v>
@@ -4745,31 +4812,31 @@
         <v>94.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
@@ -4799,16 +4866,16 @@
         <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>8</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.459</v>
+        <v>0.444</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.447</v>
@@ -4879,40 +4946,40 @@
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
@@ -4921,22 +4988,22 @@
         <v>18.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
         <v>94.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
@@ -4945,61 +5012,61 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
         <v>14</v>
       </c>
       <c r="AL25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM25" t="n">
         <v>14</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF26" t="n">
         <v>17</v>
       </c>
-      <c r="AF26" t="n">
-        <v>16</v>
-      </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5139,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="AM26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>16</v>
@@ -5157,28 +5224,28 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
         <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5187,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
@@ -5234,25 +5301,25 @@
         <v>35.2</v>
       </c>
       <c r="J27" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.413</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="O27" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P27" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.751</v>
@@ -5261,19 +5328,19 @@
         <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
         <v>17.5</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5282,19 +5349,19 @@
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -5330,16 +5397,16 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
         <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.676</v>
+        <v>0.694</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.728</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
         <v>22.2</v>
@@ -5458,25 +5525,25 @@
         <v>7.1</v>
       </c>
       <c r="X28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5518,22 +5585,22 @@
         <v>24</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.324</v>
+        <v>0.306</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="J29" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O29" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R29" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U29" t="n">
         <v>21</v>
@@ -5646,40 +5713,40 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>89.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5688,28 +5755,28 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV29" t="n">
         <v>21</v>
@@ -5721,19 +5788,19 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -5840,28 +5907,28 @@
         <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5900,10 +5967,10 @@
         <v>10</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -6055,22 +6122,22 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-4-2011-12</t>
+          <t>2012-03-04</t>
         </is>
       </c>
     </row>
